--- a/git bash.xlsx
+++ b/git bash.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Базовые команды" sheetId="1" r:id="rId1"/>
-    <sheet name="команды движений по коммитам" sheetId="2" r:id="rId2"/>
-    <sheet name="Работа с ветками" sheetId="4" r:id="rId3"/>
-    <sheet name="команды для работы с тегами" sheetId="3" r:id="rId4"/>
+    <sheet name="Создание Репо" sheetId="5" r:id="rId1"/>
+    <sheet name="Базовые команды" sheetId="1" r:id="rId2"/>
+    <sheet name="команды движений по коммитам" sheetId="2" r:id="rId3"/>
+    <sheet name="Работа с ветками" sheetId="4" r:id="rId4"/>
+    <sheet name="команды для работы с тегами" sheetId="3" r:id="rId5"/>
+    <sheet name="Сложние команды" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>git log --onelie</t>
   </si>
@@ -48,6 +50,129 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>git clone git@github.com:andreyznsk/MyOwnFiles.git MyOwnFiles</t>
+  </si>
+  <si>
+    <t>клонирует репозиторий в указанную папку</t>
+  </si>
+  <si>
+    <t>git remote -v</t>
+  </si>
+  <si>
+    <t>Посмотреть на с каким внешним репозиторием он ассициирован</t>
+  </si>
+  <si>
+    <t>git push -u origin &lt;newBranchName&gt;</t>
+  </si>
+  <si>
+    <t>Публикует локальный репозиторий и создает тукущую ветку в удаленном репо на ветку origin/&lt;newBranchName&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git pull </t>
+  </si>
+  <si>
+    <t>Скачать удаленный репозиторий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. </t>
+  </si>
+  <si>
+    <t>Git fetch</t>
+  </si>
+  <si>
+    <t>Подгрузить информацию по изменению веток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. </t>
+  </si>
+  <si>
+    <t>git merge &lt;BrNaame&gt;</t>
+  </si>
+  <si>
+    <t>Слияние ветки BrName  в текущую ветку</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>git branch -d &lt;название ветки1&gt; &lt;название ветки 2&gt; …</t>
+  </si>
+  <si>
+    <t>Удаление веток</t>
+  </si>
+  <si>
+    <t>git push --delete origin &lt;название ветки 1&gt; &lt;назавние ветки 2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. </t>
+  </si>
+  <si>
+    <t>Удаление ветки на удаленном репо</t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t>сохраняет текущую работу без изменения истории коммитов</t>
+  </si>
+  <si>
+    <t>git stash list</t>
+  </si>
+  <si>
+    <t>показывает список существующий стэш</t>
+  </si>
+  <si>
+    <t>git stash push &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>добавить файл к существующему стэш</t>
+  </si>
+  <si>
+    <t>git stash pop &lt;название стэш&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разворачивает стэш текущей ветки из стэш под названием </t>
+  </si>
+  <si>
+    <t>Временное хранилище</t>
+  </si>
+  <si>
+    <t>Склеивание коммитов</t>
+  </si>
+  <si>
+    <t>git merge &lt;BrName&gt; --squash</t>
+  </si>
+  <si>
+    <t>git push --force</t>
+  </si>
+  <si>
+    <t>Записать на удаленный сервер с изменением истории</t>
+  </si>
+  <si>
+    <t>Запись изменений в текущую ветку с сосдней ветки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git log --onelie -all </t>
+  </si>
+  <si>
+    <t>просмотр истории всех веток</t>
+  </si>
+  <si>
+    <t>git cherry-pik + хэш нужного коммита</t>
+  </si>
+  <si>
+    <t>Изменение последнего коммита</t>
+  </si>
+  <si>
+    <t>git commit --amend</t>
+  </si>
+  <si>
+    <t>решение конфликтов</t>
   </si>
 </sst>
 </file>
@@ -77,12 +202,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -105,6 +236,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -123,6 +255,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>77123</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1219200"/>
+          <a:ext cx="6611273" cy="1409897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -165,7 +340,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -208,7 +383,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -218,10 +393,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400872</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143697</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19229</xdr:rowOff>
+      <xdr:rowOff>28754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -240,6 +415,125 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="5887272" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>178847</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1333500"/>
+          <a:ext cx="3283997" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>150863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="3048001"/>
+          <a:ext cx="3162299" cy="1674862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160975</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5905500"/>
+          <a:ext cx="2656525" cy="1400175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -538,6 +832,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -551,12 +909,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="O13:Q13"/>
+  <dimension ref="O13:Q14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,28 +927,83 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K6"/>
+  <dimension ref="A6:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.5703125" customWidth="1"/>
     <col min="11" max="11" width="72.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="11:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="K6" s="2" t="s">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +1013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -612,4 +1025,95 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/git bash.xlsx
+++ b/git bash.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="879" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Создание Репо" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>git log --onelie</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>решение конфликтов</t>
+  </si>
+  <si>
+    <t>git branch -a просмотр всех веток репозитория</t>
   </si>
 </sst>
 </file>
@@ -943,10 +946,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:K11"/>
+  <dimension ref="A6:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1009,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1031,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
